--- a/ope.ed.gov/2001/criminal-offenses-public-property-virginia-colleges-and-universities-crime-2001.xlsx
+++ b/ope.ed.gov/2001/criminal-offenses-public-property-virginia-colleges-and-universities-crime-2001.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet sheetId="1" name="Criminal_Offenses_Public_Proper" state="visible" r:id="rId3"/>
+    <sheet sheetId="1" name="criminal-offenses-public-proper" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,16 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Criminal Offenses - Public Property</t>
-  </si>
-  <si>
-    <t>Survey year</t>
-  </si>
-  <si>
-    <t>Unitid</t>
-  </si>
-  <si>
-    <t>Institution name</t>
+    <t>Survey Year</t>
+  </si>
+  <si>
+    <t>UnitID</t>
+  </si>
+  <si>
+    <t>Institution Name</t>
   </si>
   <si>
     <t>Campus ID</t>
@@ -34,28 +31,28 @@
     <t>Institution Size</t>
   </si>
   <si>
-    <t>Murder/Non-negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible</t>
+    <t>Murder/Non-Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible</t>
   </si>
   <si>
     <t>Robbery</t>
   </si>
   <si>
-    <t>Aggravated assault</t>
+    <t>Aggravated Assault</t>
   </si>
   <si>
     <t>Burglary</t>
   </si>
   <si>
-    <t>Motor vehicle theft</t>
+    <t>Motor Vehicle Theft</t>
   </si>
   <si>
     <t>Arson</t>
@@ -1285,52 +1282,94 @@
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
+      <c t="s" s="1" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>3</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>8</v>
+      </c>
+      <c t="s" s="1" r="J1">
+        <v>9</v>
+      </c>
+      <c t="s" s="1" r="K1">
+        <v>10</v>
+      </c>
+      <c t="s" s="1" r="L1">
+        <v>11</v>
+      </c>
+      <c t="s" s="1" r="M1">
+        <v>12</v>
+      </c>
+      <c t="s" s="1" r="N1">
+        <v>13</v>
+      </c>
+      <c t="s" s="1" r="O1">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
-      <c t="s" s="1" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="1" r="B2">
-        <v>2</v>
+      <c s="1" r="A2">
+        <v>2001.0</v>
+      </c>
+      <c s="1" r="B2">
+        <v>419022.0</v>
       </c>
       <c t="s" s="1" r="C2">
-        <v>3</v>
-      </c>
-      <c t="s" s="1" r="D2">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c s="1" r="D2">
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>5</v>
-      </c>
-      <c t="s" s="1" r="F2">
-        <v>6</v>
-      </c>
-      <c t="s" s="1" r="G2">
-        <v>7</v>
-      </c>
-      <c t="s" s="1" r="H2">
-        <v>8</v>
-      </c>
-      <c t="s" s="1" r="I2">
-        <v>9</v>
-      </c>
-      <c t="s" s="1" r="J2">
-        <v>10</v>
-      </c>
-      <c t="s" s="1" r="K2">
-        <v>11</v>
-      </c>
-      <c t="s" s="1" r="L2">
-        <v>12</v>
-      </c>
-      <c t="s" s="1" r="M2">
-        <v>13</v>
-      </c>
-      <c t="s" s="1" r="N2">
-        <v>14</v>
-      </c>
-      <c t="s" s="1" r="O2">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c s="1" r="F2">
+        <v>449.0</v>
+      </c>
+      <c s="1" r="G2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="J2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="K2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="L2">
+        <v>2.0</v>
+      </c>
+      <c s="1" r="M2">
+        <v>5.0</v>
+      </c>
+      <c s="1" r="N2">
+        <v>1.0</v>
+      </c>
+      <c s="1" r="O2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -1341,13 +1380,13 @@
         <v>419022.0</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c s="1" r="D3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c s="1" r="F3">
         <v>449.0</v>
@@ -1368,13 +1407,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L3">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M3">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N3">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O3">
         <v>0.0</v>
@@ -1388,13 +1427,13 @@
         <v>419022.0</v>
       </c>
       <c t="s" s="1" r="C4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c s="1" r="D4">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c s="1" r="F4">
         <v>449.0</v>
@@ -1432,19 +1471,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B5">
-        <v>419022.0</v>
+        <v>231411.0</v>
       </c>
       <c t="s" s="1" r="C5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c s="1" r="D5">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c s="1" r="F5">
-        <v>449.0</v>
+        <v>349.0</v>
       </c>
       <c s="1" r="G5">
         <v>0.0</v>
@@ -1479,19 +1518,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B6">
-        <v>231411.0</v>
+        <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c s="1" r="D6">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c s="1" r="F6">
-        <v>349.0</v>
+        <v>1812.0</v>
       </c>
       <c s="1" r="G6">
         <v>0.0</v>
@@ -1529,13 +1568,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c s="1" r="D7">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c s="1" r="F7">
         <v>1812.0</v>
@@ -1576,13 +1615,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c s="1" r="D8">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c s="1" r="F8">
         <v>1812.0</v>
@@ -1623,13 +1662,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c s="1" r="D9">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c s="1" r="F9">
         <v>1812.0</v>
@@ -1670,13 +1709,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c s="1" r="D10">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c s="1" r="F10">
         <v>1812.0</v>
@@ -1717,13 +1756,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c s="1" r="D11">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c s="1" r="F11">
         <v>1812.0</v>
@@ -1764,13 +1803,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C12">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c s="1" r="D12">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E12">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c s="1" r="F12">
         <v>1812.0</v>
@@ -1811,13 +1850,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c s="1" r="D13">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c s="1" r="F13">
         <v>1812.0</v>
@@ -1855,19 +1894,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B14">
-        <v>232797.0</v>
+        <v>432348.0</v>
       </c>
       <c t="s" s="1" r="C14">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c s="1" r="D14">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E14">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c s="1" r="F14">
-        <v>1812.0</v>
+        <v>242.0</v>
       </c>
       <c s="1" r="G14">
         <v>0.0</v>
@@ -1902,19 +1941,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B15">
-        <v>432348.0</v>
+        <v>419457.0</v>
       </c>
       <c t="s" s="1" r="C15">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c s="1" r="D15">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E15">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c s="1" r="F15">
-        <v>242.0</v>
+        <v>421.0</v>
       </c>
       <c s="1" r="G15">
         <v>0.0</v>
@@ -1929,13 +1968,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K15">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L15">
         <v>0.0</v>
       </c>
       <c s="1" r="M15">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="N15">
         <v>0.0</v>
@@ -1949,19 +1988,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B16">
-        <v>419457.0</v>
+        <v>231420.0</v>
       </c>
       <c t="s" s="1" r="C16">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c s="1" r="D16">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E16">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c s="1" r="F16">
-        <v>421.0</v>
+        <v>2396.0</v>
       </c>
       <c s="1" r="G16">
         <v>0.0</v>
@@ -1976,13 +2015,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K16">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L16">
         <v>0.0</v>
       </c>
       <c s="1" r="M16">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N16">
         <v>0.0</v>
@@ -1996,19 +2035,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B17">
-        <v>231420.0</v>
+        <v>427973.0</v>
       </c>
       <c t="s" s="1" r="C17">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c s="1" r="D17">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E17">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c s="1" r="F17">
-        <v>2396.0</v>
+        <v>180.0</v>
       </c>
       <c s="1" r="G17">
         <v>0.0</v>
@@ -2043,19 +2082,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B18">
-        <v>427973.0</v>
+        <v>366793.0</v>
       </c>
       <c t="s" s="1" r="C18">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c s="1" r="D18">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E18">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c s="1" r="F18">
-        <v>180.0</v>
+        <v>222.0</v>
       </c>
       <c s="1" r="G18">
         <v>0.0</v>
@@ -2090,19 +2129,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B19">
-        <v>366793.0</v>
+        <v>231280.0</v>
       </c>
       <c t="s" s="1" r="C19">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c s="1" r="D19">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E19">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c s="1" r="F19">
-        <v>222.0</v>
+        <v>34.0</v>
       </c>
       <c s="1" r="G19">
         <v>0.0</v>
@@ -2137,19 +2176,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B20">
-        <v>231280.0</v>
+        <v>231536.0</v>
       </c>
       <c t="s" s="1" r="C20">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c s="1" r="D20">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E20">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c s="1" r="F20">
-        <v>34.0</v>
+        <v>3197.0</v>
       </c>
       <c s="1" r="G20">
         <v>0.0</v>
@@ -2187,13 +2226,13 @@
         <v>231536.0</v>
       </c>
       <c t="s" s="1" r="C21">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c s="1" r="D21">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E21">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c s="1" r="F21">
         <v>3197.0</v>
@@ -2231,19 +2270,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B22">
-        <v>231536.0</v>
+        <v>231554.0</v>
       </c>
       <c t="s" s="1" r="C22">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c s="1" r="D22">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E22">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c s="1" r="F22">
-        <v>3197.0</v>
+        <v>851.0</v>
       </c>
       <c s="1" r="G22">
         <v>0.0</v>
@@ -2278,19 +2317,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B23">
-        <v>231554.0</v>
+        <v>233356.0</v>
       </c>
       <c t="s" s="1" r="C23">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c s="1" r="D23">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E23">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c s="1" r="F23">
-        <v>851.0</v>
+        <v>110.0</v>
       </c>
       <c s="1" r="G23">
         <v>0.0</v>
@@ -2325,19 +2364,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B24">
-        <v>233356.0</v>
+        <v>231572.0</v>
       </c>
       <c t="s" s="1" r="C24">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c s="1" r="D24">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E24">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c s="1" r="F24">
-        <v>110.0</v>
+        <v>47.0</v>
       </c>
       <c s="1" r="G24">
         <v>0.0</v>
@@ -2372,19 +2411,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B25">
-        <v>231572.0</v>
+        <v>231581.0</v>
       </c>
       <c t="s" s="1" r="C25">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c s="1" r="D25">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E25">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c s="1" r="F25">
-        <v>47.0</v>
+        <v>1260.0</v>
       </c>
       <c s="1" r="G25">
         <v>0.0</v>
@@ -2419,19 +2458,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B26">
-        <v>231581.0</v>
+        <v>231828.0</v>
       </c>
       <c t="s" s="1" r="C26">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c s="1" r="D26">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E26">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c s="1" r="F26">
-        <v>1260.0</v>
+        <v>295.0</v>
       </c>
       <c s="1" r="G26">
         <v>0.0</v>
@@ -2466,19 +2505,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B27">
-        <v>231828.0</v>
+        <v>231785.0</v>
       </c>
       <c t="s" s="1" r="C27">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c s="1" r="D27">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E27">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c s="1" r="F27">
-        <v>295.0</v>
+        <v>297.0</v>
       </c>
       <c s="1" r="G27">
         <v>0.0</v>
@@ -2513,19 +2552,16 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B28">
-        <v>231785.0</v>
+        <v>441858.0</v>
       </c>
       <c t="s" s="1" r="C28">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c s="1" r="D28">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E28">
-        <v>67</v>
-      </c>
-      <c s="1" r="F28">
-        <v>297.0</v>
+        <v>68</v>
       </c>
       <c s="1" r="G28">
         <v>0.0</v>
@@ -2560,16 +2596,16 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B29">
-        <v>441858.0</v>
+        <v>231688.0</v>
       </c>
       <c t="s" s="1" r="C29">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c s="1" r="D29">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E29">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c s="1" r="G29">
         <v>0.0</v>
@@ -2604,16 +2640,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B30">
-        <v>231688.0</v>
+        <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C30">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c s="1" r="D30">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E30">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c s="1" r="F30">
+        <v>4575.0</v>
       </c>
       <c s="1" r="G30">
         <v>0.0</v>
@@ -2648,19 +2687,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B31">
-        <v>231697.0</v>
+        <v>420024.0</v>
       </c>
       <c t="s" s="1" r="C31">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c s="1" r="D31">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E31">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c s="1" r="F31">
-        <v>4575.0</v>
+        <v>234.0</v>
       </c>
       <c s="1" r="G31">
         <v>0.0</v>
@@ -2695,19 +2734,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B32">
-        <v>420024.0</v>
+        <v>377449.0</v>
       </c>
       <c t="s" s="1" r="C32">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c s="1" r="D32">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E32">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c s="1" r="F32">
-        <v>234.0</v>
+        <v>314.0</v>
       </c>
       <c s="1" r="G32">
         <v>0.0</v>
@@ -2742,19 +2781,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B33">
-        <v>377449.0</v>
+        <v>377458.0</v>
       </c>
       <c t="s" s="1" r="C33">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c s="1" r="D33">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E33">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c s="1" r="F33">
-        <v>314.0</v>
+        <v>419.0</v>
       </c>
       <c s="1" r="G33">
         <v>0.0</v>
@@ -2789,19 +2828,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B34">
-        <v>377458.0</v>
+        <v>427982.0</v>
       </c>
       <c t="s" s="1" r="C34">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c s="1" r="D34">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E34">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c s="1" r="F34">
-        <v>419.0</v>
+        <v>203.0</v>
       </c>
       <c s="1" r="G34">
         <v>0.0</v>
@@ -2836,19 +2875,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B35">
-        <v>427982.0</v>
+        <v>440378.0</v>
       </c>
       <c t="s" s="1" r="C35">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c s="1" r="D35">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E35">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c s="1" r="F35">
-        <v>203.0</v>
+        <v>89.0</v>
       </c>
       <c s="1" r="G35">
         <v>0.0</v>
@@ -2883,19 +2922,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B36">
-        <v>440378.0</v>
+        <v>232016.0</v>
       </c>
       <c t="s" s="1" r="C36">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c s="1" r="D36">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E36">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c s="1" r="F36">
-        <v>89.0</v>
+        <v>245.0</v>
       </c>
       <c s="1" r="G36">
         <v>0.0</v>
@@ -2930,19 +2969,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B37">
-        <v>232016.0</v>
+        <v>427894.0</v>
       </c>
       <c t="s" s="1" r="C37">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c s="1" r="D37">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E37">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c s="1" r="F37">
-        <v>245.0</v>
+        <v>97.0</v>
       </c>
       <c s="1" r="G37">
         <v>0.0</v>
@@ -2977,19 +3016,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B38">
-        <v>427894.0</v>
+        <v>231712.0</v>
       </c>
       <c t="s" s="1" r="C38">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c s="1" r="D38">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E38">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c s="1" r="F38">
-        <v>97.0</v>
+        <v>5388.0</v>
       </c>
       <c s="1" r="G38">
         <v>0.0</v>
@@ -3024,19 +3063,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B39">
-        <v>231712.0</v>
+        <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C39">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c s="1" r="D39">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E39">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c s="1" r="F39">
-        <v>5388.0</v>
+        <v>7489.0</v>
       </c>
       <c s="1" r="G39">
         <v>0.0</v>
@@ -3060,7 +3099,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N39">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="O39">
         <v>0.0</v>
@@ -3071,19 +3110,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B40">
-        <v>231624.0</v>
+        <v>377403.0</v>
       </c>
       <c t="s" s="1" r="C40">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c s="1" r="D40">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E40">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c s="1" r="F40">
-        <v>7489.0</v>
+        <v>30.0</v>
       </c>
       <c s="1" r="G40">
         <v>0.0</v>
@@ -3107,7 +3146,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N40">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O40">
         <v>0.0</v>
@@ -3118,19 +3157,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B41">
-        <v>377403.0</v>
+        <v>231873.0</v>
       </c>
       <c t="s" s="1" r="C41">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c s="1" r="D41">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E41">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c s="1" r="F41">
-        <v>30.0</v>
+        <v>1265.0</v>
       </c>
       <c s="1" r="G41">
         <v>0.0</v>
@@ -3165,19 +3204,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B42">
-        <v>231873.0</v>
+        <v>231882.0</v>
       </c>
       <c t="s" s="1" r="C42">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c s="1" r="D42">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E42">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c s="1" r="F42">
-        <v>1265.0</v>
+        <v>3473.0</v>
       </c>
       <c s="1" r="G42">
         <v>0.0</v>
@@ -3212,19 +3251,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B43">
-        <v>231882.0</v>
+        <v>232724.0</v>
       </c>
       <c t="s" s="1" r="C43">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c s="1" r="D43">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E43">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c s="1" r="F43">
-        <v>3473.0</v>
+        <v>68.0</v>
       </c>
       <c s="1" r="G43">
         <v>0.0</v>
@@ -3259,19 +3298,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B44">
-        <v>232724.0</v>
+        <v>440536.0</v>
       </c>
       <c t="s" s="1" r="C44">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c s="1" r="D44">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E44">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c s="1" r="F44">
-        <v>68.0</v>
+        <v>243.0</v>
       </c>
       <c s="1" r="G44">
         <v>0.0</v>
@@ -3306,19 +3345,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B45">
-        <v>440536.0</v>
+        <v>232043.0</v>
       </c>
       <c t="s" s="1" r="C45">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c s="1" r="D45">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E45">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c s="1" r="F45">
-        <v>243.0</v>
+        <v>1304.0</v>
       </c>
       <c s="1" r="G45">
         <v>0.0</v>
@@ -3353,19 +3392,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B46">
-        <v>232043.0</v>
+        <v>232052.0</v>
       </c>
       <c t="s" s="1" r="C46">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c s="1" r="D46">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E46">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c s="1" r="F46">
-        <v>1304.0</v>
+        <v>884.0</v>
       </c>
       <c s="1" r="G46">
         <v>0.0</v>
@@ -3400,19 +3439,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B47">
-        <v>232052.0</v>
+        <v>231970.0</v>
       </c>
       <c t="s" s="1" r="C47">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c s="1" r="D47">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E47">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c s="1" r="F47">
-        <v>884.0</v>
+        <v>645.0</v>
       </c>
       <c s="1" r="G47">
         <v>0.0</v>
@@ -3447,19 +3486,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B48">
-        <v>231970.0</v>
+        <v>248943.0</v>
       </c>
       <c t="s" s="1" r="C48">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c s="1" r="D48">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E48">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c s="1" r="F48">
-        <v>645.0</v>
+        <v>1348.0</v>
       </c>
       <c s="1" r="G48">
         <v>0.0</v>
@@ -3497,13 +3536,13 @@
         <v>248943.0</v>
       </c>
       <c t="s" s="1" r="C49">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c s="1" r="D49">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E49">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c s="1" r="F49">
         <v>1348.0</v>
@@ -3541,19 +3580,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B50">
-        <v>248943.0</v>
+        <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C50">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c s="1" r="D50">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E50">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c s="1" r="F50">
-        <v>1348.0</v>
+        <v>3132.0</v>
       </c>
       <c s="1" r="G50">
         <v>0.0</v>
@@ -3591,13 +3630,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C51">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c s="1" r="D51">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E51">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c s="1" r="F51">
         <v>3132.0</v>
@@ -3638,13 +3677,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C52">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c s="1" r="D52">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E52">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="1" r="F52">
         <v>3132.0</v>
@@ -3685,13 +3724,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C53">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c s="1" r="D53">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E53">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c s="1" r="F53">
         <v>3132.0</v>
@@ -3732,13 +3771,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C54">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c s="1" r="D54">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E54">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c s="1" r="F54">
         <v>3132.0</v>
@@ -3779,13 +3818,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C55">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c s="1" r="D55">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E55">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c s="1" r="F55">
         <v>3132.0</v>
@@ -3826,13 +3865,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C56">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c s="1" r="D56">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E56">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c s="1" r="F56">
         <v>3132.0</v>
@@ -3870,19 +3909,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B57">
-        <v>248934.0</v>
+        <v>232025.0</v>
       </c>
       <c t="s" s="1" r="C57">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c s="1" r="D57">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E57">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c s="1" r="F57">
-        <v>3132.0</v>
+        <v>1079.0</v>
       </c>
       <c s="1" r="G57">
         <v>0.0</v>
@@ -3917,19 +3956,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B58">
-        <v>232025.0</v>
+        <v>437149.0</v>
       </c>
       <c t="s" s="1" r="C58">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c s="1" r="D58">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E58">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c s="1" r="F58">
-        <v>1079.0</v>
+        <v>130.0</v>
       </c>
       <c s="1" r="G58">
         <v>0.0</v>
@@ -3964,19 +4003,16 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B59">
-        <v>437149.0</v>
+        <v>442310.0</v>
       </c>
       <c t="s" s="1" r="C59">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c s="1" r="D59">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E59">
-        <v>129</v>
-      </c>
-      <c s="1" r="F59">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c s="1" r="G59">
         <v>0.0</v>
@@ -4011,16 +4047,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B60">
-        <v>442310.0</v>
+        <v>438647.0</v>
       </c>
       <c t="s" s="1" r="C60">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c s="1" r="D60">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E60">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c s="1" r="F60">
+        <v>1011.0</v>
       </c>
       <c s="1" r="G60">
         <v>0.0</v>
@@ -4055,19 +4094,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B61">
-        <v>438647.0</v>
+        <v>232502.0</v>
       </c>
       <c t="s" s="1" r="C61">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c s="1" r="D61">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E61">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c s="1" r="F61">
-        <v>1011.0</v>
+        <v>766.0</v>
       </c>
       <c s="1" r="G61">
         <v>0.0</v>
@@ -4102,19 +4141,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B62">
-        <v>232502.0</v>
+        <v>232089.0</v>
       </c>
       <c t="s" s="1" r="C62">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c s="1" r="D62">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E62">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c s="1" r="F62">
-        <v>766.0</v>
+        <v>920.0</v>
       </c>
       <c s="1" r="G62">
         <v>0.0</v>
@@ -4149,19 +4188,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B63">
-        <v>232089.0</v>
+        <v>233329.0</v>
       </c>
       <c t="s" s="1" r="C63">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c s="1" r="D63">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E63">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c s="1" r="F63">
-        <v>920.0</v>
+        <v>230.0</v>
       </c>
       <c s="1" r="G63">
         <v>0.0</v>
@@ -4196,19 +4235,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B64">
-        <v>233329.0</v>
+        <v>382957.0</v>
       </c>
       <c t="s" s="1" r="C64">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c s="1" r="D64">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E64">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c s="1" r="F64">
-        <v>230.0</v>
+        <v>96.0</v>
       </c>
       <c s="1" r="G64">
         <v>0.0</v>
@@ -4243,19 +4282,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B65">
-        <v>382957.0</v>
+        <v>232186.0</v>
       </c>
       <c t="s" s="1" r="C65">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c s="1" r="D65">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E65">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c s="1" r="F65">
-        <v>96.0</v>
+        <v>24897.0</v>
       </c>
       <c s="1" r="G65">
         <v>0.0</v>
@@ -4290,19 +4329,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B66">
-        <v>232186.0</v>
+        <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C66">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c s="1" r="D66">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E66">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c s="1" r="F66">
-        <v>24897.0</v>
+        <v>4270.0</v>
       </c>
       <c s="1" r="G66">
         <v>0.0</v>
@@ -4340,13 +4379,13 @@
         <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C67">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c s="1" r="D67">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E67">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c s="1" r="F67">
         <v>4270.0</v>
@@ -4384,19 +4423,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B68">
-        <v>232195.0</v>
+        <v>406495.0</v>
       </c>
       <c t="s" s="1" r="C68">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c s="1" r="D68">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E68">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c s="1" r="F68">
-        <v>4270.0</v>
+        <v>133.0</v>
       </c>
       <c s="1" r="G68">
         <v>0.0</v>
@@ -4431,19 +4470,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B69">
-        <v>406495.0</v>
+        <v>232256.0</v>
       </c>
       <c t="s" s="1" r="C69">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c s="1" r="D69">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E69">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c s="1" r="F69">
-        <v>133.0</v>
+        <v>1026.0</v>
       </c>
       <c s="1" r="G69">
         <v>0.0</v>
@@ -4478,19 +4517,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B70">
-        <v>232256.0</v>
+        <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C70">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c s="1" r="D70">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E70">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c s="1" r="F70">
-        <v>1026.0</v>
+        <v>5787.0</v>
       </c>
       <c s="1" r="G70">
         <v>0.0</v>
@@ -4525,19 +4564,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B71">
-        <v>232265.0</v>
+        <v>431266.0</v>
       </c>
       <c t="s" s="1" r="C71">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c s="1" r="D71">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E71">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c s="1" r="F71">
-        <v>5787.0</v>
+        <v>101.0</v>
       </c>
       <c s="1" r="G71">
         <v>0.0</v>
@@ -4572,19 +4611,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B72">
-        <v>431266.0</v>
+        <v>233189.0</v>
       </c>
       <c t="s" s="1" r="C72">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c s="1" r="D72">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E72">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c s="1" r="F72">
-        <v>101.0</v>
+        <v>189.0</v>
       </c>
       <c s="1" r="G72">
         <v>0.0</v>
@@ -4619,19 +4658,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B73">
-        <v>233189.0</v>
+        <v>377421.0</v>
       </c>
       <c t="s" s="1" r="C73">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c s="1" r="D73">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E73">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c s="1" r="F73">
-        <v>189.0</v>
+        <v>112.0</v>
       </c>
       <c s="1" r="G73">
         <v>0.0</v>
@@ -4652,10 +4691,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M73">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N73">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="O73">
         <v>0.0</v>
@@ -4666,19 +4705,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B74">
-        <v>377421.0</v>
+        <v>232292.0</v>
       </c>
       <c t="s" s="1" r="C74">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c s="1" r="D74">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E74">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c s="1" r="F74">
-        <v>112.0</v>
+        <v>48.0</v>
       </c>
       <c s="1" r="G74">
         <v>0.0</v>
@@ -4699,10 +4738,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M74">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N74">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O74">
         <v>0.0</v>
@@ -4713,19 +4752,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B75">
-        <v>232292.0</v>
+        <v>232308.0</v>
       </c>
       <c t="s" s="1" r="C75">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c s="1" r="D75">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E75">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c s="1" r="F75">
-        <v>48.0</v>
+        <v>1091.0</v>
       </c>
       <c s="1" r="G75">
         <v>0.0</v>
@@ -4746,7 +4785,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M75">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N75">
         <v>0.0</v>
@@ -4760,19 +4799,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B76">
-        <v>232308.0</v>
+        <v>418977.0</v>
       </c>
       <c t="s" s="1" r="C76">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c s="1" r="D76">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E76">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c s="1" r="F76">
-        <v>1091.0</v>
+        <v>24.0</v>
       </c>
       <c s="1" r="G76">
         <v>0.0</v>
@@ -4793,7 +4832,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M76">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N76">
         <v>0.0</v>
@@ -4807,19 +4846,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B77">
-        <v>418977.0</v>
+        <v>368601.0</v>
       </c>
       <c t="s" s="1" r="C77">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c s="1" r="D77">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E77">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c s="1" r="F77">
-        <v>24.0</v>
+        <v>381.0</v>
       </c>
       <c s="1" r="G77">
         <v>0.0</v>
@@ -4854,19 +4893,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B78">
-        <v>368601.0</v>
+        <v>437051.0</v>
       </c>
       <c t="s" s="1" r="C78">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c s="1" r="D78">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E78">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c s="1" r="F78">
-        <v>381.0</v>
+        <v>222.0</v>
       </c>
       <c s="1" r="G78">
         <v>0.0</v>
@@ -4901,19 +4940,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B79">
-        <v>437051.0</v>
+        <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C79">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c s="1" r="D79">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E79">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c s="1" r="F79">
-        <v>222.0</v>
+        <v>11079.0</v>
       </c>
       <c s="1" r="G79">
         <v>0.0</v>
@@ -4922,22 +4961,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I79">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="J79">
         <v>0.0</v>
       </c>
       <c s="1" r="K79">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L79">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="M79">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c s="1" r="N79">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="O79">
         <v>0.0</v>
@@ -4951,13 +4990,13 @@
         <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C80">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c s="1" r="D80">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E80">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c s="1" r="F80">
         <v>11079.0</v>
@@ -4969,22 +5008,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I80">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="J80">
         <v>0.0</v>
       </c>
       <c s="1" r="K80">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L80">
-        <v>4.0</v>
+        <v>105.0</v>
       </c>
       <c s="1" r="M80">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="N80">
-        <v>2.0</v>
+        <v>30.0</v>
       </c>
       <c s="1" r="O80">
         <v>0.0</v>
@@ -4998,13 +5037,13 @@
         <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C81">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c s="1" r="D81">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E81">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c s="1" r="F81">
         <v>11079.0</v>
@@ -5016,7 +5055,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I81">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J81">
         <v>0.0</v>
@@ -5025,13 +5064,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L81">
-        <v>105.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M81">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N81">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O81">
         <v>0.0</v>
@@ -5042,19 +5081,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B82">
-        <v>232414.0</v>
+        <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C82">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c s="1" r="D82">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E82">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c s="1" r="F82">
-        <v>11079.0</v>
+        <v>15562.0</v>
       </c>
       <c s="1" r="G82">
         <v>0.0</v>
@@ -5092,13 +5131,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C83">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c s="1" r="D83">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E83">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c s="1" r="F83">
         <v>15562.0</v>
@@ -5136,19 +5175,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B84">
-        <v>232423.0</v>
+        <v>231837.0</v>
       </c>
       <c t="s" s="1" r="C84">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c s="1" r="D84">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E84">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c s="1" r="F84">
-        <v>15562.0</v>
+        <v>648.0</v>
       </c>
       <c s="1" r="G84">
         <v>0.0</v>
@@ -5186,13 +5225,13 @@
         <v>231837.0</v>
       </c>
       <c t="s" s="1" r="C85">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c s="1" r="D85">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E85">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="1" r="F85">
         <v>648.0</v>
@@ -5230,19 +5269,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B86">
-        <v>231837.0</v>
+        <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C86">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c s="1" r="D86">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E86">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c s="1" r="F86">
-        <v>648.0</v>
+        <v>5548.0</v>
       </c>
       <c s="1" r="G86">
         <v>0.0</v>
@@ -5260,13 +5299,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L86">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M86">
         <v>0.0</v>
       </c>
       <c s="1" r="N86">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O86">
         <v>0.0</v>
@@ -5280,13 +5319,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C87">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c s="1" r="D87">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E87">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c s="1" r="F87">
         <v>5548.0</v>
@@ -5307,13 +5346,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L87">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M87">
         <v>0.0</v>
       </c>
       <c s="1" r="N87">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O87">
         <v>0.0</v>
@@ -5327,13 +5366,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C88">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c s="1" r="D88">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E88">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c s="1" r="F88">
         <v>5548.0</v>
@@ -5371,19 +5410,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B89">
-        <v>232450.0</v>
+        <v>232469.0</v>
       </c>
       <c t="s" s="1" r="C89">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c s="1" r="D89">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E89">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c s="1" r="F89">
-        <v>5548.0</v>
+        <v>635.0</v>
       </c>
       <c s="1" r="G89">
         <v>0.0</v>
@@ -5418,19 +5457,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B90">
-        <v>232469.0</v>
+        <v>232557.0</v>
       </c>
       <c t="s" s="1" r="C90">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c s="1" r="D90">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E90">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c s="1" r="F90">
-        <v>635.0</v>
+        <v>6162.0</v>
       </c>
       <c s="1" r="G90">
         <v>0.0</v>
@@ -5439,7 +5478,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I90">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J90">
         <v>0.0</v>
@@ -5454,7 +5493,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N90">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O90">
         <v>0.0</v>
@@ -5465,19 +5504,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B91">
-        <v>232557.0</v>
+        <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C91">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c s="1" r="D91">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E91">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c s="1" r="F91">
-        <v>6162.0</v>
+        <v>4114.0</v>
       </c>
       <c s="1" r="G91">
         <v>0.0</v>
@@ -5486,7 +5525,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I91">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="J91">
         <v>0.0</v>
@@ -5495,13 +5534,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L91">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M91">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="N91">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O91">
         <v>0.0</v>
@@ -5512,19 +5551,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B92">
-        <v>232566.0</v>
+        <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C92">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="1" r="D92">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E92">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c s="1" r="F92">
-        <v>4114.0</v>
+        <v>4191.0</v>
       </c>
       <c s="1" r="G92">
         <v>0.0</v>
@@ -5533,7 +5572,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I92">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J92">
         <v>0.0</v>
@@ -5542,10 +5581,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L92">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M92">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N92">
         <v>0.0</v>
@@ -5562,13 +5601,13 @@
         <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C93">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c s="1" r="D93">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E93">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c s="1" r="F93">
         <v>4191.0</v>
@@ -5606,19 +5645,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B94">
-        <v>232575.0</v>
+        <v>232609.0</v>
       </c>
       <c t="s" s="1" r="C94">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c s="1" r="D94">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E94">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c s="1" r="F94">
-        <v>4191.0</v>
+        <v>1937.0</v>
       </c>
       <c s="1" r="G94">
         <v>0.0</v>
@@ -5633,10 +5672,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K94">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L94">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c s="1" r="M94">
         <v>0.0</v>
@@ -5653,19 +5692,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B95">
-        <v>232609.0</v>
+        <v>232618.0</v>
       </c>
       <c t="s" s="1" r="C95">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c s="1" r="D95">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E95">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c s="1" r="F95">
-        <v>1937.0</v>
+        <v>202.0</v>
       </c>
       <c s="1" r="G95">
         <v>0.0</v>
@@ -5680,10 +5719,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K95">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L95">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M95">
         <v>0.0</v>
@@ -5700,19 +5739,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B96">
-        <v>232618.0</v>
+        <v>232672.0</v>
       </c>
       <c t="s" s="1" r="C96">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c s="1" r="D96">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E96">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c s="1" r="F96">
-        <v>202.0</v>
+        <v>1564.0</v>
       </c>
       <c s="1" r="G96">
         <v>0.0</v>
@@ -5721,22 +5760,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I96">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J96">
         <v>0.0</v>
       </c>
       <c s="1" r="K96">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="L96">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="M96">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="N96">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="O96">
         <v>0.0</v>
@@ -5747,19 +5786,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B97">
-        <v>232672.0</v>
+        <v>232706.0</v>
       </c>
       <c t="s" s="1" r="C97">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c s="1" r="D97">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E97">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c s="1" r="F97">
-        <v>1564.0</v>
+        <v>3475.0</v>
       </c>
       <c s="1" r="G97">
         <v>0.0</v>
@@ -5768,22 +5807,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I97">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J97">
         <v>0.0</v>
       </c>
       <c s="1" r="K97">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L97">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M97">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N97">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O97">
         <v>0.0</v>
@@ -5794,19 +5833,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B98">
-        <v>232706.0</v>
+        <v>231642.0</v>
       </c>
       <c t="s" s="1" r="C98">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c s="1" r="D98">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E98">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c s="1" r="F98">
-        <v>3475.0</v>
+        <v>534.0</v>
       </c>
       <c s="1" r="G98">
         <v>0.0</v>
@@ -5827,7 +5866,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M98">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N98">
         <v>0.0</v>
@@ -5844,13 +5883,13 @@
         <v>231642.0</v>
       </c>
       <c t="s" s="1" r="C99">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c s="1" r="D99">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E99">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c s="1" r="F99">
         <v>534.0</v>
@@ -5891,13 +5930,13 @@
         <v>231642.0</v>
       </c>
       <c t="s" s="1" r="C100">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c s="1" r="D100">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E100">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c s="1" r="F100">
         <v>534.0</v>
@@ -5935,19 +5974,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B101">
-        <v>231642.0</v>
+        <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C101">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c s="1" r="D101">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E101">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c s="1" r="F101">
-        <v>534.0</v>
+        <v>908.0</v>
       </c>
       <c s="1" r="G101">
         <v>0.0</v>
@@ -5982,19 +6021,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B102">
-        <v>131742.0</v>
+        <v>233091.0</v>
       </c>
       <c t="s" s="1" r="C102">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c s="1" r="D102">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E102">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c s="1" r="F102">
-        <v>908.0</v>
+        <v>156.0</v>
       </c>
       <c s="1" r="G102">
         <v>0.0</v>
@@ -6029,19 +6068,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B103">
-        <v>233091.0</v>
+        <v>232788.0</v>
       </c>
       <c t="s" s="1" r="C103">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c s="1" r="D103">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E103">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c s="1" r="F103">
-        <v>156.0</v>
+        <v>2916.0</v>
       </c>
       <c s="1" r="G103">
         <v>0.0</v>
@@ -6076,19 +6115,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B104">
-        <v>232788.0</v>
+        <v>419004.0</v>
       </c>
       <c t="s" s="1" r="C104">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c s="1" r="D104">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E104">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c s="1" r="F104">
-        <v>2916.0</v>
+        <v>49.0</v>
       </c>
       <c s="1" r="G104">
         <v>0.0</v>
@@ -6123,19 +6162,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B105">
-        <v>419004.0</v>
+        <v>232867.0</v>
       </c>
       <c t="s" s="1" r="C105">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c s="1" r="D105">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E105">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c s="1" r="F105">
-        <v>49.0</v>
+        <v>3947.0</v>
       </c>
       <c s="1" r="G105">
         <v>0.0</v>
@@ -6170,19 +6209,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B106">
-        <v>232867.0</v>
+        <v>433299.0</v>
       </c>
       <c t="s" s="1" r="C106">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c s="1" r="D106">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E106">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c s="1" r="F106">
-        <v>3947.0</v>
+        <v>34.0</v>
       </c>
       <c s="1" r="G106">
         <v>0.0</v>
@@ -6217,19 +6256,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B107">
-        <v>433299.0</v>
+        <v>233417.0</v>
       </c>
       <c t="s" s="1" r="C107">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c s="1" r="D107">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E107">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c s="1" r="F107">
-        <v>34.0</v>
+        <v>15.0</v>
       </c>
       <c s="1" r="G107">
         <v>0.0</v>
@@ -6264,43 +6303,43 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B108">
-        <v>233417.0</v>
+        <v>232937.0</v>
       </c>
       <c t="s" s="1" r="C108">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c s="1" r="D108">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E108">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c s="1" r="F108">
-        <v>15.0</v>
+        <v>6721.0</v>
       </c>
       <c s="1" r="G108">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="H108">
         <v>0.0</v>
       </c>
       <c s="1" r="I108">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c s="1" r="J108">
         <v>0.0</v>
       </c>
       <c s="1" r="K108">
-        <v>0.0</v>
+        <v>64.0</v>
       </c>
       <c s="1" r="L108">
-        <v>0.0</v>
+        <v>37.0</v>
       </c>
       <c s="1" r="M108">
-        <v>0.0</v>
+        <v>62.0</v>
       </c>
       <c s="1" r="N108">
-        <v>0.0</v>
+        <v>79.0</v>
       </c>
       <c s="1" r="O108">
         <v>0.0</v>
@@ -6311,43 +6350,43 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B109">
-        <v>232937.0</v>
+        <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C109">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c s="1" r="D109">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E109">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c s="1" r="F109">
-        <v>6721.0</v>
+        <v>38159.0</v>
       </c>
       <c s="1" r="G109">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H109">
         <v>0.0</v>
       </c>
       <c s="1" r="I109">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J109">
         <v>0.0</v>
       </c>
       <c s="1" r="K109">
-        <v>64.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L109">
-        <v>37.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M109">
-        <v>62.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="N109">
-        <v>79.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O109">
         <v>0.0</v>
@@ -6361,13 +6400,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C110">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c s="1" r="D110">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E110">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c s="1" r="F110">
         <v>38159.0</v>
@@ -6379,22 +6418,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I110">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J110">
         <v>0.0</v>
       </c>
       <c s="1" r="K110">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="L110">
         <v>0.0</v>
       </c>
       <c s="1" r="M110">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="N110">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="O110">
         <v>0.0</v>
@@ -6408,13 +6447,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C111">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c s="1" r="D111">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E111">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c s="1" r="F111">
         <v>38159.0</v>
@@ -6426,22 +6465,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I111">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="J111">
         <v>0.0</v>
       </c>
       <c s="1" r="K111">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L111">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c s="1" r="M111">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c s="1" r="N111">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O111">
         <v>0.0</v>
@@ -6455,13 +6494,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C112">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c s="1" r="D112">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E112">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c s="1" r="F112">
         <v>38159.0</v>
@@ -6473,22 +6512,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I112">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J112">
         <v>0.0</v>
       </c>
       <c s="1" r="K112">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L112">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M112">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N112">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O112">
         <v>0.0</v>
@@ -6502,13 +6541,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C113">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c s="1" r="D113">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E113">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c s="1" r="F113">
         <v>38159.0</v>
@@ -6546,19 +6585,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B114">
-        <v>232946.0</v>
+        <v>232982.0</v>
       </c>
       <c t="s" s="1" r="C114">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c s="1" r="D114">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E114">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c s="1" r="F114">
-        <v>38159.0</v>
+        <v>19627.0</v>
       </c>
       <c s="1" r="G114">
         <v>0.0</v>
@@ -6573,16 +6612,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K114">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="L114">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="M114">
         <v>0.0</v>
       </c>
       <c s="1" r="N114">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="O114">
         <v>0.0</v>
@@ -6593,19 +6632,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B115">
-        <v>232982.0</v>
+        <v>233019.0</v>
       </c>
       <c t="s" s="1" r="C115">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c s="1" r="D115">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E115">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c s="1" r="F115">
-        <v>19627.0</v>
+        <v>3024.0</v>
       </c>
       <c s="1" r="G115">
         <v>0.0</v>
@@ -6620,16 +6659,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K115">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L115">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M115">
         <v>0.0</v>
       </c>
       <c s="1" r="N115">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O115">
         <v>0.0</v>
@@ -6640,19 +6679,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B116">
-        <v>233019.0</v>
+        <v>233037.0</v>
       </c>
       <c t="s" s="1" r="C116">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="1" r="D116">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E116">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="1" r="F116">
-        <v>3024.0</v>
+        <v>1492.0</v>
       </c>
       <c s="1" r="G116">
         <v>0.0</v>
@@ -6690,13 +6729,13 @@
         <v>233037.0</v>
       </c>
       <c t="s" s="1" r="C117">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c s="1" r="D117">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E117">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c s="1" r="F117">
         <v>1492.0</v>
@@ -6734,19 +6773,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B118">
-        <v>233037.0</v>
+        <v>233116.0</v>
       </c>
       <c t="s" s="1" r="C118">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c s="1" r="D118">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E118">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c s="1" r="F118">
-        <v>1492.0</v>
+        <v>4171.0</v>
       </c>
       <c s="1" r="G118">
         <v>0.0</v>
@@ -6781,19 +6820,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B119">
-        <v>233116.0</v>
+        <v>233277.0</v>
       </c>
       <c t="s" s="1" r="C119">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c s="1" r="D119">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E119">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c s="1" r="F119">
-        <v>4171.0</v>
+        <v>9142.0</v>
       </c>
       <c s="1" r="G119">
         <v>0.0</v>
@@ -6802,7 +6841,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I119">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="J119">
         <v>0.0</v>
@@ -6811,13 +6850,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L119">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c s="1" r="M119">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c s="1" r="N119">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="O119">
         <v>0.0</v>
@@ -6828,19 +6867,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B120">
-        <v>233277.0</v>
+        <v>233301.0</v>
       </c>
       <c t="s" s="1" r="C120">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c s="1" r="D120">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E120">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c s="1" r="F120">
-        <v>9142.0</v>
+        <v>727.0</v>
       </c>
       <c s="1" r="G120">
         <v>0.0</v>
@@ -6849,7 +6888,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I120">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J120">
         <v>0.0</v>
@@ -6858,13 +6897,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L120">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M120">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N120">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O120">
         <v>0.0</v>
@@ -6875,19 +6914,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B121">
-        <v>233301.0</v>
+        <v>233295.0</v>
       </c>
       <c t="s" s="1" r="C121">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c s="1" r="D121">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E121">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c s="1" r="F121">
-        <v>727.0</v>
+        <v>1150.0</v>
       </c>
       <c s="1" r="G121">
         <v>0.0</v>
@@ -6911,7 +6950,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N121">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O121">
         <v>0.0</v>
@@ -6922,19 +6961,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B122">
-        <v>233295.0</v>
+        <v>233310.0</v>
       </c>
       <c t="s" s="1" r="C122">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c s="1" r="D122">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E122">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c s="1" r="F122">
-        <v>1150.0</v>
+        <v>2058.0</v>
       </c>
       <c s="1" r="G122">
         <v>0.0</v>
@@ -6958,7 +6997,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N122">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O122">
         <v>0.0</v>
@@ -6969,19 +7008,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B123">
-        <v>233310.0</v>
+        <v>231651.0</v>
       </c>
       <c t="s" s="1" r="C123">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c s="1" r="D123">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E123">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c s="1" r="F123">
-        <v>2058.0</v>
+        <v>2689.0</v>
       </c>
       <c s="1" r="G123">
         <v>0.0</v>
@@ -7019,13 +7058,13 @@
         <v>231651.0</v>
       </c>
       <c t="s" s="1" r="C124">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c s="1" r="D124">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E124">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c s="1" r="F124">
         <v>2689.0</v>
@@ -7063,19 +7102,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B125">
-        <v>231651.0</v>
+        <v>233338.0</v>
       </c>
       <c t="s" s="1" r="C125">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c s="1" r="D125">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E125">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c s="1" r="F125">
-        <v>2689.0</v>
+        <v>1304.0</v>
       </c>
       <c s="1" r="G125">
         <v>0.0</v>
@@ -7110,19 +7149,16 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B126">
-        <v>233338.0</v>
+        <v>437769.0</v>
       </c>
       <c t="s" s="1" r="C126">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c s="1" r="D126">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E126">
-        <v>263</v>
-      </c>
-      <c s="1" r="F126">
-        <v>1304.0</v>
+        <v>264</v>
       </c>
       <c s="1" r="G126">
         <v>0.0</v>
@@ -7157,16 +7193,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B127">
-        <v>437769.0</v>
+        <v>233408.0</v>
       </c>
       <c t="s" s="1" r="C127">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c s="1" r="D127">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E127">
-        <v>265</v>
+        <v>266</v>
+      </c>
+      <c s="1" r="F127">
+        <v>136.0</v>
       </c>
       <c s="1" r="G127">
         <v>0.0</v>
@@ -7190,7 +7229,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N127">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="O127">
         <v>0.0</v>
@@ -7201,19 +7240,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B128">
-        <v>233408.0</v>
+        <v>233426.0</v>
       </c>
       <c t="s" s="1" r="C128">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c s="1" r="D128">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E128">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c s="1" r="F128">
-        <v>136.0</v>
+        <v>1790.0</v>
       </c>
       <c s="1" r="G128">
         <v>0.0</v>
@@ -7237,7 +7276,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N128">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O128">
         <v>0.0</v>
@@ -7248,19 +7287,16 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B129">
-        <v>233426.0</v>
+        <v>441876.0</v>
       </c>
       <c t="s" s="1" r="C129">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c s="1" r="D129">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E129">
-        <v>269</v>
-      </c>
-      <c s="1" r="F129">
-        <v>1790.0</v>
+        <v>270</v>
       </c>
       <c s="1" r="G129">
         <v>0.0</v>
@@ -7275,19 +7311,19 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K129">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="L129">
         <v>0.0</v>
       </c>
       <c s="1" r="M129">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c s="1" r="N129">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c s="1" r="O129">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="130">
@@ -7295,16 +7331,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B130">
-        <v>441876.0</v>
+        <v>233499.0</v>
       </c>
       <c t="s" s="1" r="C130">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c s="1" r="D130">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E130">
-        <v>271</v>
+        <v>272</v>
+      </c>
+      <c s="1" r="F130">
+        <v>555.0</v>
       </c>
       <c s="1" r="G130">
         <v>0.0</v>
@@ -7319,19 +7358,19 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K130">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L130">
         <v>0.0</v>
       </c>
       <c s="1" r="M130">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="N130">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O130">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="131">
@@ -7339,19 +7378,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B131">
-        <v>233499.0</v>
+        <v>234216.0</v>
       </c>
       <c t="s" s="1" r="C131">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c s="1" r="D131">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E131">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="1" r="F131">
-        <v>555.0</v>
+        <v>478.0</v>
       </c>
       <c s="1" r="G131">
         <v>0.0</v>
@@ -7372,7 +7411,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M131">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N131">
         <v>0.0</v>
@@ -7386,19 +7425,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B132">
-        <v>234216.0</v>
+        <v>232885.0</v>
       </c>
       <c t="s" s="1" r="C132">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c s="1" r="D132">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E132">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c s="1" r="F132">
-        <v>478.0</v>
+        <v>86.0</v>
       </c>
       <c s="1" r="G132">
         <v>0.0</v>
@@ -7433,19 +7472,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B133">
-        <v>232885.0</v>
+        <v>233541.0</v>
       </c>
       <c t="s" s="1" r="C133">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c s="1" r="D133">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E133">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c s="1" r="F133">
-        <v>86.0</v>
+        <v>2451.0</v>
       </c>
       <c s="1" r="G133">
         <v>0.0</v>
@@ -7480,19 +7519,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B134">
-        <v>233541.0</v>
+        <v>261931.0</v>
       </c>
       <c t="s" s="1" r="C134">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c s="1" r="D134">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E134">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c s="1" r="F134">
-        <v>2451.0</v>
+        <v>354.0</v>
       </c>
       <c s="1" r="G134">
         <v>0.0</v>
@@ -7527,19 +7566,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B135">
-        <v>261931.0</v>
+        <v>233611.0</v>
       </c>
       <c t="s" s="1" r="C135">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c s="1" r="D135">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E135">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c s="1" r="F135">
-        <v>354.0</v>
+        <v>445.0</v>
       </c>
       <c s="1" r="G135">
         <v>0.0</v>
@@ -7574,19 +7613,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B136">
-        <v>233611.0</v>
+        <v>233082.0</v>
       </c>
       <c t="s" s="1" r="C136">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c s="1" r="D136">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E136">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c s="1" r="F136">
-        <v>445.0</v>
+        <v>84.0</v>
       </c>
       <c s="1" r="G136">
         <v>0.0</v>
@@ -7621,19 +7660,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B137">
-        <v>233082.0</v>
+        <v>233639.0</v>
       </c>
       <c t="s" s="1" r="C137">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c s="1" r="D137">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E137">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c s="1" r="F137">
-        <v>84.0</v>
+        <v>4313.0</v>
       </c>
       <c s="1" r="G137">
         <v>0.0</v>
@@ -7668,19 +7707,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B138">
-        <v>233639.0</v>
+        <v>233648.0</v>
       </c>
       <c t="s" s="1" r="C138">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c s="1" r="D138">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E138">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c s="1" r="F138">
-        <v>4313.0</v>
+        <v>4192.0</v>
       </c>
       <c s="1" r="G138">
         <v>0.0</v>
@@ -7715,19 +7754,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B139">
-        <v>233648.0</v>
+        <v>233657.0</v>
       </c>
       <c t="s" s="1" r="C139">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c s="1" r="D139">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E139">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c s="1" r="F139">
-        <v>4192.0</v>
+        <v>95.0</v>
       </c>
       <c s="1" r="G139">
         <v>0.0</v>
@@ -7762,19 +7801,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B140">
-        <v>233657.0</v>
+        <v>233666.0</v>
       </c>
       <c t="s" s="1" r="C140">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c s="1" r="D140">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E140">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c s="1" r="F140">
-        <v>95.0</v>
+        <v>25.0</v>
       </c>
       <c s="1" r="G140">
         <v>0.0</v>
@@ -7809,19 +7848,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B141">
-        <v>233666.0</v>
+        <v>438498.0</v>
       </c>
       <c t="s" s="1" r="C141">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c s="1" r="D141">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E141">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c s="1" r="F141">
-        <v>25.0</v>
+        <v>686.0</v>
       </c>
       <c s="1" r="G141">
         <v>0.0</v>
@@ -7856,19 +7895,16 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B142">
-        <v>438498.0</v>
+        <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C142">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c s="1" r="D142">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E142">
-        <v>295</v>
-      </c>
-      <c s="1" r="F142">
-        <v>686.0</v>
+        <v>296</v>
       </c>
       <c s="1" r="G142">
         <v>0.0</v>
@@ -7883,19 +7919,19 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K142">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L142">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="M142">
         <v>0.0</v>
       </c>
       <c s="1" r="N142">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="O142">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="143">
@@ -7903,16 +7939,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B143">
-        <v>233684.0</v>
+        <v>231721.0</v>
       </c>
       <c t="s" s="1" r="C143">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c s="1" r="D143">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E143">
-        <v>297</v>
+        <v>298</v>
+      </c>
+      <c s="1" r="F143">
+        <v>35.0</v>
       </c>
       <c s="1" r="G143">
         <v>0.0</v>
@@ -7927,19 +7966,19 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K143">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L143">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M143">
         <v>0.0</v>
       </c>
       <c s="1" r="N143">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O143">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="144">
@@ -7947,19 +7986,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B144">
-        <v>231721.0</v>
+        <v>232593.0</v>
       </c>
       <c t="s" s="1" r="C144">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c s="1" r="D144">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E144">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c s="1" r="F144">
-        <v>35.0</v>
+        <v>51.0</v>
       </c>
       <c s="1" r="G144">
         <v>0.0</v>
@@ -7994,19 +8033,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B145">
-        <v>232593.0</v>
+        <v>233718.0</v>
       </c>
       <c t="s" s="1" r="C145">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c s="1" r="D145">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E145">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c s="1" r="F145">
-        <v>51.0</v>
+        <v>738.0</v>
       </c>
       <c s="1" r="G145">
         <v>0.0</v>
@@ -8041,19 +8080,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B146">
-        <v>233718.0</v>
+        <v>233286.0</v>
       </c>
       <c t="s" s="1" r="C146">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c s="1" r="D146">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E146">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c s="1" r="F146">
-        <v>738.0</v>
+        <v>43.0</v>
       </c>
       <c s="1" r="G146">
         <v>0.0</v>
@@ -8088,19 +8127,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B147">
-        <v>233286.0</v>
+        <v>248970.0</v>
       </c>
       <c t="s" s="1" r="C147">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c s="1" r="D147">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E147">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c s="1" r="F147">
-        <v>43.0</v>
+        <v>311.0</v>
       </c>
       <c s="1" r="G147">
         <v>0.0</v>
@@ -8135,19 +8174,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B148">
-        <v>248970.0</v>
+        <v>440341.0</v>
       </c>
       <c t="s" s="1" r="C148">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c s="1" r="D148">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E148">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c s="1" r="F148">
-        <v>311.0</v>
+        <v>146.0</v>
       </c>
       <c s="1" r="G148">
         <v>0.0</v>
@@ -8182,19 +8221,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B149">
-        <v>440341.0</v>
+        <v>233897.0</v>
       </c>
       <c t="s" s="1" r="C149">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c s="1" r="D149">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E149">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c s="1" r="F149">
-        <v>146.0</v>
+        <v>1480.0</v>
       </c>
       <c s="1" r="G149">
         <v>0.0</v>
@@ -8229,19 +8268,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B150">
-        <v>233897.0</v>
+        <v>233754.0</v>
       </c>
       <c t="s" s="1" r="C150">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c s="1" r="D150">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E150">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c s="1" r="F150">
-        <v>1480.0</v>
+        <v>7885.0</v>
       </c>
       <c s="1" r="G150">
         <v>0.0</v>
@@ -8250,22 +8289,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I150">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J150">
         <v>0.0</v>
       </c>
       <c s="1" r="K150">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L150">
         <v>0.0</v>
       </c>
       <c s="1" r="M150">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="N150">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="O150">
         <v>0.0</v>
@@ -8276,19 +8315,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B151">
-        <v>233754.0</v>
+        <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C151">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c s="1" r="D151">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E151">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c s="1" r="F151">
-        <v>7885.0</v>
+        <v>21279.0</v>
       </c>
       <c s="1" r="G151">
         <v>0.0</v>
@@ -8297,22 +8336,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I151">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J151">
         <v>0.0</v>
       </c>
       <c s="1" r="K151">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L151">
         <v>0.0</v>
       </c>
       <c s="1" r="M151">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N151">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O151">
         <v>0.0</v>
@@ -8326,13 +8365,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C152">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c s="1" r="D152">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E152">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c s="1" r="F152">
         <v>21279.0</v>
@@ -8373,13 +8412,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C153">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c s="1" r="D153">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E153">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c s="1" r="F153">
         <v>21279.0</v>
@@ -8420,13 +8459,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C154">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c s="1" r="D154">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E154">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c s="1" r="F154">
         <v>21279.0</v>
@@ -8467,13 +8506,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C155">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c s="1" r="D155">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E155">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c s="1" r="F155">
         <v>21279.0</v>
@@ -8511,19 +8550,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B156">
-        <v>233772.0</v>
+        <v>232919.0</v>
       </c>
       <c t="s" s="1" r="C156">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c s="1" r="D156">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E156">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c s="1" r="F156">
-        <v>21279.0</v>
+        <v>88.0</v>
       </c>
       <c s="1" r="G156">
         <v>0.0</v>
@@ -8558,19 +8597,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B157">
-        <v>232919.0</v>
+        <v>233842.0</v>
       </c>
       <c t="s" s="1" r="C157">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c s="1" r="D157">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E157">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c s="1" r="F157">
-        <v>88.0</v>
+        <v>339.0</v>
       </c>
       <c s="1" r="G157">
         <v>0.0</v>
@@ -8605,19 +8644,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B158">
-        <v>233842.0</v>
+        <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C158">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c s="1" r="D158">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E158">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c s="1" r="F158">
-        <v>339.0</v>
+        <v>4481.0</v>
       </c>
       <c s="1" r="G158">
         <v>0.0</v>
@@ -8652,19 +8691,16 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B159">
-        <v>232681.0</v>
+        <v>442189.0</v>
       </c>
       <c t="s" s="1" r="C159">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c s="1" r="D159">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E159">
-        <v>329</v>
-      </c>
-      <c s="1" r="F159">
-        <v>4481.0</v>
+        <v>330</v>
       </c>
       <c s="1" r="G159">
         <v>0.0</v>
@@ -8699,16 +8735,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B160">
-        <v>442189.0</v>
+        <v>233374.0</v>
       </c>
       <c t="s" s="1" r="C160">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c s="1" r="D160">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E160">
-        <v>331</v>
+        <v>332</v>
+      </c>
+      <c s="1" r="F160">
+        <v>4369.0</v>
       </c>
       <c s="1" r="G160">
         <v>0.0</v>
@@ -8729,10 +8768,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M160">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="N160">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="O160">
         <v>0.0</v>
@@ -8743,19 +8782,16 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B161">
-        <v>233374.0</v>
+        <v>442639.0</v>
       </c>
       <c t="s" s="1" r="C161">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c s="1" r="D161">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E161">
-        <v>333</v>
-      </c>
-      <c s="1" r="F161">
-        <v>4369.0</v>
+        <v>334</v>
       </c>
       <c s="1" r="G161">
         <v>0.0</v>
@@ -8773,13 +8809,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L161">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M161">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N161">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O161">
         <v>0.0</v>
@@ -8790,16 +8826,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B162">
-        <v>442639.0</v>
+        <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C162">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c s="1" r="D162">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E162">
-        <v>335</v>
+        <v>336</v>
+      </c>
+      <c s="1" r="F162">
+        <v>22739.0</v>
       </c>
       <c s="1" r="G162">
         <v>0.0</v>
@@ -8814,10 +8853,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K162">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="L162">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c s="1" r="M162">
         <v>0.0</v>
@@ -8837,13 +8876,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C163">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c s="1" r="D163">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E163">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c s="1" r="F163">
         <v>22739.0</v>
@@ -8861,10 +8900,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K163">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L163">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M163">
         <v>0.0</v>
@@ -8884,13 +8923,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C164">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c s="1" r="D164">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E164">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c s="1" r="F164">
         <v>22739.0</v>
@@ -8931,13 +8970,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C165">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c s="1" r="D165">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E165">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c s="1" r="F165">
         <v>22739.0</v>
@@ -8978,13 +9017,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C166">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c s="1" r="D166">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E166">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c s="1" r="F166">
         <v>22739.0</v>
@@ -9008,7 +9047,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M166">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N166">
         <v>0.0</v>
@@ -9025,13 +9064,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C167">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c s="1" r="D167">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E167">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c s="1" r="F167">
         <v>22739.0</v>
@@ -9055,7 +9094,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M167">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N167">
         <v>0.0</v>
@@ -9072,13 +9111,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C168">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c s="1" r="D168">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E168">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c s="1" r="F168">
         <v>22739.0</v>
@@ -9119,13 +9158,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C169">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c s="1" r="D169">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E169">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c s="1" r="F169">
         <v>22739.0</v>
@@ -9163,19 +9202,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B170">
-        <v>234076.0</v>
+        <v>377485.0</v>
       </c>
       <c t="s" s="1" r="C170">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c s="1" r="D170">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E170">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c s="1" r="F170">
-        <v>22739.0</v>
+        <v>58.0</v>
       </c>
       <c s="1" r="G170">
         <v>0.0</v>
@@ -9210,19 +9249,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B171">
-        <v>377485.0</v>
+        <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C171">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c s="1" r="D171">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E171">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c s="1" r="F171">
-        <v>58.0</v>
+        <v>25001.0</v>
       </c>
       <c s="1" r="G171">
         <v>0.0</v>
@@ -9237,16 +9276,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K171">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c s="1" r="L171">
-        <v>0.0</v>
+        <v>80.0</v>
       </c>
       <c s="1" r="M171">
-        <v>0.0</v>
+        <v>56.0</v>
       </c>
       <c s="1" r="N171">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c s="1" r="O171">
         <v>0.0</v>
@@ -9260,13 +9299,13 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C172">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c s="1" r="D172">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E172">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c s="1" r="F172">
         <v>25001.0</v>
@@ -9284,16 +9323,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K172">
-        <v>28.0</v>
+        <v>10.0</v>
       </c>
       <c s="1" r="L172">
-        <v>80.0</v>
+        <v>11.0</v>
       </c>
       <c s="1" r="M172">
-        <v>56.0</v>
+        <v>9.0</v>
       </c>
       <c s="1" r="N172">
-        <v>33.0</v>
+        <v>14.0</v>
       </c>
       <c s="1" r="O172">
         <v>0.0</v>
@@ -9304,43 +9343,43 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B173">
-        <v>234030.0</v>
+        <v>233903.0</v>
       </c>
       <c t="s" s="1" r="C173">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c s="1" r="D173">
+        <v>1.0</v>
+      </c>
+      <c t="s" s="1" r="E173">
+        <v>358</v>
+      </c>
+      <c s="1" r="F173">
+        <v>2349.0</v>
+      </c>
+      <c s="1" r="G173">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H173">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I173">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="J173">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="K173">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="L173">
         <v>2.0</v>
       </c>
-      <c t="s" s="1" r="E173">
-        <v>357</v>
-      </c>
-      <c s="1" r="F173">
-        <v>25001.0</v>
-      </c>
-      <c s="1" r="G173">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H173">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I173">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="J173">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="K173">
-        <v>10.0</v>
-      </c>
-      <c s="1" r="L173">
-        <v>11.0</v>
-      </c>
       <c s="1" r="M173">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N173">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O173">
         <v>0.0</v>
@@ -9351,19 +9390,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B174">
-        <v>233903.0</v>
+        <v>233912.0</v>
       </c>
       <c t="s" s="1" r="C174">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c s="1" r="D174">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E174">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c s="1" r="F174">
-        <v>2349.0</v>
+        <v>969.0</v>
       </c>
       <c s="1" r="G174">
         <v>0.0</v>
@@ -9381,7 +9420,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L174">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M174">
         <v>0.0</v>
@@ -9398,19 +9437,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B175">
-        <v>233912.0</v>
+        <v>234085.0</v>
       </c>
       <c t="s" s="1" r="C175">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c s="1" r="D175">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E175">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c s="1" r="F175">
-        <v>969.0</v>
+        <v>1311.0</v>
       </c>
       <c s="1" r="G175">
         <v>0.0</v>
@@ -9431,7 +9470,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M175">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c s="1" r="N175">
         <v>0.0</v>
@@ -9445,19 +9484,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B176">
-        <v>234085.0</v>
+        <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C176">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c s="1" r="D176">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E176">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c s="1" r="F176">
-        <v>1311.0</v>
+        <v>28203.0</v>
       </c>
       <c s="1" r="G176">
         <v>0.0</v>
@@ -9475,10 +9514,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L176">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M176">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N176">
         <v>0.0</v>
@@ -9495,13 +9534,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C177">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c s="1" r="D177">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E177">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c s="1" r="F177">
         <v>28203.0</v>
@@ -9522,7 +9561,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L177">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M177">
         <v>0.0</v>
@@ -9542,13 +9581,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C178">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c s="1" r="D178">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E178">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c s="1" r="F178">
         <v>28203.0</v>
@@ -9589,13 +9628,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C179">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c s="1" r="D179">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E179">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c s="1" r="F179">
         <v>28203.0</v>
@@ -9613,7 +9652,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K179">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L179">
         <v>0.0</v>
@@ -9622,10 +9661,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N179">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O179">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="180">
@@ -9636,13 +9675,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C180">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c s="1" r="D180">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E180">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c s="1" r="F180">
         <v>28203.0</v>
@@ -9660,7 +9699,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K180">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L180">
         <v>0.0</v>
@@ -9669,10 +9708,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N180">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O180">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="181">
@@ -9683,13 +9722,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C181">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c s="1" r="D181">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E181">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c s="1" r="F181">
         <v>28203.0</v>
@@ -9730,13 +9769,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C182">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c s="1" r="D182">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E182">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c s="1" r="F182">
         <v>28203.0</v>
@@ -9763,7 +9802,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N182">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O182">
         <v>0.0</v>
@@ -9777,13 +9816,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C183">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c s="1" r="D183">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E183">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c s="1" r="F183">
         <v>28203.0</v>
@@ -9810,7 +9849,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N183">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O183">
         <v>0.0</v>
@@ -9821,19 +9860,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B184">
-        <v>233921.0</v>
+        <v>234119.0</v>
       </c>
       <c t="s" s="1" r="C184">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c s="1" r="D184">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E184">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c s="1" r="F184">
-        <v>28203.0</v>
+        <v>151.0</v>
       </c>
       <c s="1" r="G184">
         <v>0.0</v>
@@ -9868,19 +9907,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B185">
-        <v>234119.0</v>
+        <v>430254.0</v>
       </c>
       <c t="s" s="1" r="C185">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c s="1" r="D185">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E185">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c s="1" r="F185">
-        <v>151.0</v>
+        <v>204.0</v>
       </c>
       <c s="1" r="G185">
         <v>0.0</v>
@@ -9915,19 +9954,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B186">
-        <v>430254.0</v>
+        <v>234155.0</v>
       </c>
       <c t="s" s="1" r="C186">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c s="1" r="D186">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E186">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c s="1" r="F186">
-        <v>204.0</v>
+        <v>4638.0</v>
       </c>
       <c s="1" r="G186">
         <v>0.0</v>
@@ -9939,13 +9978,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="J186">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="K186">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="L186">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M186">
         <v>0.0</v>
@@ -9962,19 +10001,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B187">
-        <v>234155.0</v>
+        <v>234164.0</v>
       </c>
       <c t="s" s="1" r="C187">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c s="1" r="D187">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E187">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c s="1" r="F187">
-        <v>4638.0</v>
+        <v>1712.0</v>
       </c>
       <c s="1" r="G187">
         <v>0.0</v>
@@ -9986,13 +10025,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="J187">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="K187">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L187">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M187">
         <v>0.0</v>
@@ -10009,19 +10048,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B188">
-        <v>234164.0</v>
+        <v>234173.0</v>
       </c>
       <c t="s" s="1" r="C188">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c s="1" r="D188">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E188">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c s="1" r="F188">
-        <v>1712.0</v>
+        <v>1412.0</v>
       </c>
       <c s="1" r="G188">
         <v>0.0</v>
@@ -10056,19 +10095,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B189">
-        <v>234173.0</v>
+        <v>233949.0</v>
       </c>
       <c t="s" s="1" r="C189">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c s="1" r="D189">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E189">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c s="1" r="F189">
-        <v>1412.0</v>
+        <v>7904.0</v>
       </c>
       <c s="1" r="G189">
         <v>0.0</v>
@@ -10103,19 +10142,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B190">
-        <v>233949.0</v>
+        <v>234191.0</v>
       </c>
       <c t="s" s="1" r="C190">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c s="1" r="D190">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E190">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c s="1" r="F190">
-        <v>7904.0</v>
+        <v>62.0</v>
       </c>
       <c s="1" r="G190">
         <v>0.0</v>
@@ -10150,19 +10189,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B191">
-        <v>234191.0</v>
+        <v>234207.0</v>
       </c>
       <c t="s" s="1" r="C191">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c s="1" r="D191">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E191">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c s="1" r="F191">
-        <v>62.0</v>
+        <v>2072.0</v>
       </c>
       <c s="1" r="G191">
         <v>0.0</v>
@@ -10197,19 +10236,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B192">
-        <v>234207.0</v>
+        <v>234225.0</v>
       </c>
       <c t="s" s="1" r="C192">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c s="1" r="D192">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E192">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c s="1" r="F192">
-        <v>2072.0</v>
+        <v>229.0</v>
       </c>
       <c s="1" r="G192">
         <v>0.0</v>
@@ -10244,19 +10283,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B193">
-        <v>234225.0</v>
+        <v>234359.0</v>
       </c>
       <c t="s" s="1" r="C193">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c s="1" r="D193">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E193">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c s="1" r="F193">
-        <v>229.0</v>
+        <v>238.0</v>
       </c>
       <c s="1" r="G193">
         <v>0.0</v>
@@ -10291,19 +10330,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B194">
-        <v>234359.0</v>
+        <v>234377.0</v>
       </c>
       <c t="s" s="1" r="C194">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c s="1" r="D194">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E194">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c s="1" r="F194">
-        <v>238.0</v>
+        <v>2490.0</v>
       </c>
       <c s="1" r="G194">
         <v>0.0</v>
@@ -10330,53 +10369,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="O194">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="195">
-      <c s="1" r="A195">
-        <v>2001.0</v>
-      </c>
-      <c s="1" r="B195">
-        <v>234377.0</v>
-      </c>
-      <c t="s" s="1" r="C195">
-        <v>400</v>
-      </c>
-      <c s="1" r="D195">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="1" r="E195">
-        <v>401</v>
-      </c>
-      <c s="1" r="F195">
-        <v>2490.0</v>
-      </c>
-      <c s="1" r="G195">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H195">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I195">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="J195">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="K195">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="L195">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="M195">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N195">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="O195">
         <v>0.0</v>
       </c>
     </row>
